--- a/data/evaluation/evaluation_Center_Autumn_Eggplants.xlsx
+++ b/data/evaluation/evaluation_Center_Autumn_Eggplants.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3287.769304512652</v>
+        <v>3311.963235199637</v>
       </c>
       <c r="C4" t="n">
-        <v>16560945.56153406</v>
+        <v>16683529.22475222</v>
       </c>
       <c r="D4" t="n">
-        <v>4069.514167751976</v>
+        <v>4084.547615679393</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.09235640490247876</v>
+        <v>-0.1004419969452293</v>
       </c>
     </row>
     <row r="5">
